--- a/server/src/static/抽奖结果.xlsx
+++ b/server/src/static/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,21 +408,15 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>000038</v>
-      </c>
-      <c r="B5" t="str">
-        <v>埃拉尼</v>
-      </c>
-      <c r="C5" t="str">
-        <v>WTA</v>
+        <v>4等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>000093</v>
+        <v>000089</v>
       </c>
       <c r="B6" t="str">
-        <v>鸳鸯</v>
+        <v>秦钟</v>
       </c>
       <c r="C6" t="str">
         <v>红楼梦</v>
@@ -430,15 +424,21 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4等奖</v>
+        <v>000013</v>
+      </c>
+      <c r="B7" t="str">
+        <v>沃兹</v>
+      </c>
+      <c r="C7" t="str">
+        <v>WTA</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>000008</v>
+        <v>000005</v>
       </c>
       <c r="B8" t="str">
-        <v>科贝尔</v>
+        <v>卡普</v>
       </c>
       <c r="C8" t="str">
         <v>WTA</v>
@@ -446,10 +446,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>000057</v>
+        <v>000070</v>
       </c>
       <c r="B9" t="str">
-        <v>戈芬</v>
+        <v>布莱恩</v>
       </c>
       <c r="C9" t="str">
         <v>ATP</v>
@@ -457,54 +457,48 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>000309</v>
+        <v>000039</v>
       </c>
       <c r="B10" t="str">
-        <v>林肯公园</v>
+        <v>彭帅</v>
       </c>
       <c r="C10" t="str">
-        <v>MUSIC</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>000066</v>
+        <v>000084</v>
       </c>
       <c r="B11" t="str">
-        <v>索萨</v>
+        <v>妙玉</v>
       </c>
       <c r="C11" t="str">
-        <v>ATP</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>000023</v>
+        <v>000079</v>
       </c>
       <c r="B12" t="str">
-        <v>本西奇</v>
+        <v>贾宝玉</v>
       </c>
       <c r="C12" t="str">
-        <v>WTA</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>000101</v>
-      </c>
-      <c r="B13" t="str">
-        <v>抱琴</v>
-      </c>
-      <c r="C13" t="str">
-        <v>红楼梦</v>
+        <v>5等奖</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>000075</v>
+        <v>000069</v>
       </c>
       <c r="B14" t="str">
-        <v>吴迪</v>
+        <v>阿加西</v>
       </c>
       <c r="C14" t="str">
         <v>ATP</v>
@@ -512,62 +506,68 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>000402</v>
+        <v>000010</v>
       </c>
       <c r="B15" t="str">
-        <v>Pink</v>
+        <v>小威</v>
       </c>
       <c r="C15" t="str">
-        <v>MUSIC</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>000031</v>
+        <v>000075</v>
       </c>
       <c r="B16" t="str">
-        <v>齐步</v>
+        <v>吴迪</v>
       </c>
       <c r="C16" t="str">
-        <v>WTA</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>000091</v>
+        <v>000037</v>
       </c>
       <c r="B17" t="str">
-        <v>麝月</v>
+        <v>考特</v>
       </c>
       <c r="C17" t="str">
-        <v>红楼梦</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>000032</v>
+        <v>000045</v>
       </c>
       <c r="B18" t="str">
-        <v>维基奇</v>
+        <v>大师兄</v>
       </c>
       <c r="C18" t="str">
-        <v>WTA</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>5等奖</v>
+        <v>000006</v>
+      </c>
+      <c r="B19" t="str">
+        <v>小白菜</v>
+      </c>
+      <c r="C19" t="str">
+        <v>WTA</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>000209</v>
+        <v>000066</v>
       </c>
       <c r="B20" t="str">
-        <v>芳官</v>
+        <v>索萨</v>
       </c>
       <c r="C20" t="str">
-        <v>红楼梦</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="21">
@@ -583,10 +583,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>000004</v>
+        <v>000016</v>
       </c>
       <c r="B22" t="str">
-        <v>科维托娃</v>
+        <v>凯斯</v>
       </c>
       <c r="C22" t="str">
         <v>WTA</v>
@@ -594,76 +594,76 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>000104</v>
+        <v>000007</v>
       </c>
       <c r="B23" t="str">
-        <v>贾敬</v>
+        <v>贝尔滕斯</v>
       </c>
       <c r="C23" t="str">
-        <v>红楼梦</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>000076</v>
+        <v>000026</v>
       </c>
       <c r="B24" t="str">
-        <v>张泽</v>
+        <v>谢淑薇</v>
       </c>
       <c r="C24" t="str">
-        <v>ATP</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>000060</v>
+        <v>000095</v>
       </c>
       <c r="B25" t="str">
-        <v>西蒙</v>
+        <v>紫鹃</v>
       </c>
       <c r="C25" t="str">
-        <v>ATP</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>000067</v>
+        <v>000027</v>
       </c>
       <c r="B26" t="str">
-        <v>哈赛</v>
+        <v>克妈</v>
       </c>
       <c r="C26" t="str">
-        <v>ATP</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>000086</v>
+        <v>000047</v>
       </c>
       <c r="B27" t="str">
-        <v>王熙凤</v>
+        <v>西里奇</v>
       </c>
       <c r="C27" t="str">
-        <v>红楼梦</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>000201</v>
+        <v>000055</v>
       </c>
       <c r="B28" t="str">
-        <v>碧昂丝</v>
+        <v>拉奥</v>
       </c>
       <c r="C28" t="str">
-        <v>MUSIC</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>000202</v>
+        <v>000109</v>
       </c>
       <c r="B29" t="str">
-        <v>茄官</v>
+        <v>贾云</v>
       </c>
       <c r="C29" t="str">
         <v>红楼梦</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>000062</v>
+        <v>000059</v>
       </c>
       <c r="B30" t="str">
-        <v>塞皮</v>
+        <v>郑玄</v>
       </c>
       <c r="C30" t="str">
         <v>ATP</v>
@@ -682,54 +682,54 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>000007</v>
+        <v>000096</v>
       </c>
       <c r="B31" t="str">
-        <v>贝尔滕斯</v>
+        <v>碧痕</v>
       </c>
       <c r="C31" t="str">
-        <v>WTA</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>000304</v>
+        <v>000040</v>
       </c>
       <c r="B32" t="str">
-        <v>水果姐</v>
+        <v>张帅</v>
       </c>
       <c r="C32" t="str">
-        <v>MUSIC</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>000401</v>
+        <v>000085</v>
       </c>
       <c r="B33" t="str">
-        <v>泰勒</v>
+        <v>史湘云</v>
       </c>
       <c r="C33" t="str">
-        <v>MUSIC</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>000302</v>
+        <v>000043</v>
       </c>
       <c r="B34" t="str">
-        <v>阿黛尔</v>
+        <v>费德勒</v>
       </c>
       <c r="C34" t="str">
-        <v>MUSIC</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>000092</v>
+        <v>000083</v>
       </c>
       <c r="B35" t="str">
-        <v>袭人</v>
+        <v>李纨</v>
       </c>
       <c r="C35" t="str">
         <v>红楼梦</v>
@@ -737,164 +737,164 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>000065</v>
+        <v>000087</v>
       </c>
       <c r="B36" t="str">
-        <v>克里赞</v>
+        <v>巧姐</v>
       </c>
       <c r="C36" t="str">
-        <v>ATP</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>000204</v>
+        <v>000029</v>
       </c>
       <c r="B37" t="str">
-        <v>龄官</v>
+        <v>塞莱斯</v>
       </c>
       <c r="C37" t="str">
-        <v>红楼梦</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>000078</v>
+        <v>000002</v>
       </c>
       <c r="B38" t="str">
-        <v>薛宝钗</v>
+        <v>哈勒普</v>
       </c>
       <c r="C38" t="str">
-        <v>红楼梦</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>000010</v>
+        <v>000305</v>
       </c>
       <c r="B39" t="str">
-        <v>小威</v>
+        <v>A妹</v>
       </c>
       <c r="C39" t="str">
-        <v>WTA</v>
+        <v>MUSIC</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>000025</v>
+        <v>000302</v>
       </c>
       <c r="B40" t="str">
-        <v>阿扎</v>
+        <v>阿黛尔</v>
       </c>
       <c r="C40" t="str">
-        <v>WTA</v>
+        <v>MUSIC</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>000002</v>
+        <v>000076</v>
       </c>
       <c r="B41" t="str">
-        <v>哈勒普</v>
+        <v>张泽</v>
       </c>
       <c r="C41" t="str">
-        <v>WTA</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>000105</v>
+        <v>000015</v>
       </c>
       <c r="B42" t="str">
-        <v>贾琏</v>
+        <v>格格</v>
       </c>
       <c r="C42" t="str">
-        <v>红楼梦</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>000102</v>
+        <v>000064</v>
       </c>
       <c r="B43" t="str">
-        <v>贾政</v>
+        <v>查迪</v>
       </c>
       <c r="C43" t="str">
-        <v>红楼梦</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>000063</v>
+        <v>000001</v>
       </c>
       <c r="B44" t="str">
-        <v>米尔曼</v>
+        <v>OSAKA</v>
       </c>
       <c r="C44" t="str">
-        <v>ATP</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>000055</v>
+        <v>000306</v>
       </c>
       <c r="B45" t="str">
-        <v>拉奥</v>
+        <v>贾老板</v>
       </c>
       <c r="C45" t="str">
-        <v>ATP</v>
+        <v>MUSIC</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>000206</v>
+        <v>000036</v>
       </c>
       <c r="B46" t="str">
-        <v>蕊官</v>
+        <v>佩内塔</v>
       </c>
       <c r="C46" t="str">
-        <v>红楼梦</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>000009</v>
+        <v>000060</v>
       </c>
       <c r="B47" t="str">
-        <v>萨巴</v>
+        <v>西蒙</v>
       </c>
       <c r="C47" t="str">
-        <v>WTA</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>000088</v>
+        <v>000050</v>
       </c>
       <c r="B48" t="str">
-        <v>秦可卿</v>
+        <v>伊斯内尔</v>
       </c>
       <c r="C48" t="str">
-        <v>红楼梦</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>000044</v>
+        <v>000105</v>
       </c>
       <c r="B49" t="str">
-        <v>小兹</v>
+        <v>贾琏</v>
       </c>
       <c r="C49" t="str">
-        <v>ATP</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>000108</v>
+        <v>000086</v>
       </c>
       <c r="B50" t="str">
-        <v>贾蓉</v>
+        <v>王熙凤</v>
       </c>
       <c r="C50" t="str">
         <v>红楼梦</v>
@@ -902,43 +902,43 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>000048</v>
+        <v>000107</v>
       </c>
       <c r="B51" t="str">
-        <v>蒂姆</v>
+        <v>贾珍</v>
       </c>
       <c r="C51" t="str">
-        <v>ATP</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>000016</v>
+        <v>000077</v>
       </c>
       <c r="B52" t="str">
-        <v>凯斯</v>
+        <v>林黛玉</v>
       </c>
       <c r="C52" t="str">
-        <v>WTA</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>000306</v>
+        <v>000051</v>
       </c>
       <c r="B53" t="str">
-        <v>贾老板</v>
+        <v>卡恰</v>
       </c>
       <c r="C53" t="str">
-        <v>MUSIC</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>000073</v>
+        <v>000063</v>
       </c>
       <c r="B54" t="str">
-        <v>马胡</v>
+        <v>米尔曼</v>
       </c>
       <c r="C54" t="str">
         <v>ATP</v>
@@ -946,87 +946,87 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>000080</v>
+        <v>000053</v>
       </c>
       <c r="B55" t="str">
-        <v>贾元春</v>
+        <v>福格尼尼</v>
       </c>
       <c r="C55" t="str">
-        <v>红楼梦</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>000400</v>
+        <v>000207</v>
       </c>
       <c r="B56" t="str">
-        <v>艾薇儿</v>
+        <v>药官</v>
       </c>
       <c r="C56" t="str">
-        <v>MUSIC</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>000074</v>
+        <v>000035</v>
       </c>
       <c r="B57" t="str">
-        <v>特松佳</v>
+        <v>文奇</v>
       </c>
       <c r="C57" t="str">
-        <v>ATP</v>
+        <v>WTA</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>000005</v>
+        <v>000065</v>
       </c>
       <c r="B58" t="str">
-        <v>卡普</v>
+        <v>克里赞</v>
       </c>
       <c r="C58" t="str">
-        <v>WTA</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>000071</v>
+        <v>000308</v>
       </c>
       <c r="B59" t="str">
-        <v>穆雷</v>
+        <v>火星哥</v>
       </c>
       <c r="C59" t="str">
-        <v>ATP</v>
+        <v>MUSIC</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>000061</v>
+        <v>000203</v>
       </c>
       <c r="B60" t="str">
-        <v>约翰逊</v>
+        <v>宝官</v>
       </c>
       <c r="C60" t="str">
-        <v>ATP</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>000303</v>
+        <v>000208</v>
       </c>
       <c r="B61" t="str">
-        <v>GAGA</v>
+        <v>藕官</v>
       </c>
       <c r="C61" t="str">
-        <v>MUSIC</v>
+        <v>红楼梦</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>000081</v>
+        <v>000103</v>
       </c>
       <c r="B62" t="str">
-        <v>探春</v>
+        <v>贾赦</v>
       </c>
       <c r="C62" t="str">
         <v>红楼梦</v>
@@ -1034,89 +1034,23 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>000013</v>
+        <v>000062</v>
       </c>
       <c r="B63" t="str">
-        <v>沃兹</v>
+        <v>塞皮</v>
       </c>
       <c r="C63" t="str">
-        <v>WTA</v>
+        <v>ATP</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>000097</v>
-      </c>
-      <c r="B64" t="str">
-        <v>平儿</v>
-      </c>
-      <c r="C64" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>000307</v>
-      </c>
-      <c r="B65" t="str">
-        <v>阿姆</v>
-      </c>
-      <c r="C65" t="str">
-        <v>MUSIC</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>000090</v>
-      </c>
-      <c r="B66" t="str">
-        <v>晴雯</v>
-      </c>
-      <c r="C66" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>000012</v>
-      </c>
-      <c r="B67" t="str">
-        <v>巴蒂</v>
-      </c>
-      <c r="C67" t="str">
-        <v>WTA</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>000200</v>
-      </c>
-      <c r="B68" t="str">
-        <v>琪官</v>
-      </c>
-      <c r="C68" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>000077</v>
-      </c>
-      <c r="B69" t="str">
-        <v>林黛玉</v>
-      </c>
-      <c r="C69" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
         <v>特等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C64"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/src/static/抽奖结果.xlsx
+++ b/server/src/static/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,664 +393,509 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1等奖</v>
+        <v>4等奖</v>
+      </c>
+      <c r="B2" t="str">
+        <v>小米小爱音箱pro8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2等奖</v>
+      <c r="A3">
+        <v>6518</v>
+      </c>
+      <c r="B3" t="str">
+        <v>邓超</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Rex</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>3等奖</v>
+      <c r="A4">
+        <v>17314</v>
+      </c>
+      <c r="B4" t="str">
+        <v>程添</v>
+      </c>
+      <c r="C4" t="str">
+        <v>程汪汪</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>4等奖</v>
       </c>
+      <c r="B5" t="str">
+        <v>aca空气炸锅</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>000089</v>
+      <c r="A6">
+        <v>18532</v>
       </c>
       <c r="B6" t="str">
-        <v>秦钟</v>
+        <v>文川</v>
       </c>
       <c r="C6" t="str">
-        <v>红楼梦</v>
+        <v>靠一口仙气活着的川川</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>000013</v>
+      <c r="A7">
+        <v>16604</v>
       </c>
       <c r="B7" t="str">
-        <v>沃兹</v>
+        <v>张寿</v>
       </c>
       <c r="C7" t="str">
-        <v>WTA</v>
+        <v>肉牛牛</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>000005</v>
+        <v>4等奖</v>
       </c>
       <c r="B8" t="str">
-        <v>卡普</v>
-      </c>
-      <c r="C8" t="str">
-        <v>WTA</v>
+        <v>skg按摩腰带</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>000070</v>
+      <c r="A9">
+        <v>9448</v>
       </c>
       <c r="B9" t="str">
-        <v>布莱恩</v>
+        <v>未燕</v>
       </c>
       <c r="C9" t="str">
-        <v>ATP</v>
+        <v>叶纤尘</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>000039</v>
+      <c r="A10">
+        <v>20590</v>
       </c>
       <c r="B10" t="str">
-        <v>彭帅</v>
+        <v>时赛赛</v>
       </c>
       <c r="C10" t="str">
-        <v>WTA</v>
+        <v>时八岁</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>000084</v>
+        <v>4等奖</v>
       </c>
       <c r="B11" t="str">
-        <v>妙玉</v>
-      </c>
-      <c r="C11" t="str">
-        <v>红楼梦</v>
+        <v>摩飞加湿器4l</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>000079</v>
+      <c r="A12">
+        <v>22372</v>
       </c>
       <c r="B12" t="str">
-        <v>贾宝玉</v>
+        <v>周海洋</v>
       </c>
       <c r="C12" t="str">
-        <v>红楼梦</v>
+        <v>zz海洋</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>5等奖</v>
+      <c r="A13">
+        <v>11042</v>
+      </c>
+      <c r="B13" t="str">
+        <v>胡峰</v>
+      </c>
+      <c r="C13" t="str">
+        <v>紫川</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>000069</v>
+      <c r="A14">
+        <v>21028</v>
       </c>
       <c r="B14" t="str">
-        <v>阿加西</v>
+        <v>邵凯亮</v>
       </c>
       <c r="C14" t="str">
-        <v>ATP</v>
+        <v>飞鸟花树</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>000010</v>
+      <c r="A15">
+        <v>23234</v>
       </c>
       <c r="B15" t="str">
-        <v>小威</v>
+        <v>胡伟</v>
       </c>
       <c r="C15" t="str">
-        <v>WTA</v>
+        <v>本心</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>000075</v>
+        <v>4等奖</v>
       </c>
       <c r="B16" t="str">
-        <v>吴迪</v>
-      </c>
-      <c r="C16" t="str">
-        <v>ATP</v>
+        <v>惠普 dj2720 打印机</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>000037</v>
+      <c r="A17">
+        <v>20918</v>
       </c>
       <c r="B17" t="str">
-        <v>考特</v>
+        <v>陈浩</v>
       </c>
       <c r="C17" t="str">
-        <v>WTA</v>
+        <v>明月桑</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>000045</v>
+      <c r="A18">
+        <v>11716</v>
       </c>
       <c r="B18" t="str">
-        <v>大师兄</v>
+        <v>邓晓</v>
       </c>
       <c r="C18" t="str">
-        <v>ATP</v>
+        <v>小写字母eL</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>000006</v>
+      <c r="A19">
+        <v>88</v>
       </c>
       <c r="B19" t="str">
-        <v>小白菜</v>
+        <v>张靖</v>
       </c>
       <c r="C19" t="str">
-        <v>WTA</v>
+        <v>靖哥哥</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>000066</v>
+      <c r="A20">
+        <v>11250</v>
       </c>
       <c r="B20" t="str">
-        <v>索萨</v>
+        <v>陆志君</v>
       </c>
       <c r="C20" t="str">
-        <v>ATP</v>
+        <v>楚汐</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>000072</v>
+        <v>4等奖</v>
       </c>
       <c r="B21" t="str">
-        <v>瓦林卡</v>
-      </c>
-      <c r="C21" t="str">
-        <v>ATP</v>
+        <v>aca电烤箱</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>000016</v>
+      <c r="A22">
+        <v>15998</v>
       </c>
       <c r="B22" t="str">
-        <v>凯斯</v>
+        <v>郭跃鹏</v>
       </c>
       <c r="C22" t="str">
-        <v>WTA</v>
+        <v>大威</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>000007</v>
+      <c r="A23">
+        <v>17225</v>
       </c>
       <c r="B23" t="str">
-        <v>贝尔滕斯</v>
+        <v>雷雨馨</v>
       </c>
       <c r="C23" t="str">
-        <v>WTA</v>
+        <v>一九</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>000026</v>
+        <v>4等奖</v>
       </c>
       <c r="B24" t="str">
-        <v>谢淑薇</v>
-      </c>
-      <c r="C24" t="str">
-        <v>WTA</v>
+        <v>小熊多功能锅</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>000095</v>
+      <c r="A25">
+        <v>7730</v>
       </c>
       <c r="B25" t="str">
-        <v>紫鹃</v>
+        <v>王晨阳</v>
       </c>
       <c r="C25" t="str">
-        <v>红楼梦</v>
+        <v>板蓝根</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>000027</v>
+      <c r="A26">
+        <v>21135</v>
       </c>
       <c r="B26" t="str">
-        <v>克妈</v>
+        <v>邢佳亮</v>
       </c>
       <c r="C26" t="str">
-        <v>WTA</v>
+        <v>阿亮学长</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>000047</v>
+      <c r="A27">
+        <v>21969</v>
       </c>
       <c r="B27" t="str">
-        <v>西里奇</v>
+        <v>白星宇</v>
       </c>
       <c r="C27" t="str">
-        <v>ATP</v>
+        <v>南国</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>000055</v>
+      <c r="A28">
+        <v>24513</v>
       </c>
       <c r="B28" t="str">
-        <v>拉奥</v>
+        <v>孟帅帅</v>
       </c>
       <c r="C28" t="str">
-        <v>ATP</v>
+        <v>孟帅帅</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>000109</v>
+      <c r="A29">
+        <v>17019</v>
       </c>
       <c r="B29" t="str">
-        <v>贾云</v>
+        <v>汪杉杉</v>
       </c>
       <c r="C29" t="str">
-        <v>红楼梦</v>
+        <v>杉</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>000059</v>
+        <v>4等奖</v>
       </c>
       <c r="B30" t="str">
-        <v>郑玄</v>
-      </c>
-      <c r="C30" t="str">
-        <v>ATP</v>
+        <v>cherry mx3.0s g80-3870lyaeu-2 机械键盘</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>000096</v>
+      <c r="A31">
+        <v>21049</v>
       </c>
       <c r="B31" t="str">
-        <v>碧痕</v>
+        <v>沈佳鑫</v>
       </c>
       <c r="C31" t="str">
-        <v>红楼梦</v>
+        <v>肥宅鑫</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>000040</v>
+      <c r="A32">
+        <v>17355</v>
       </c>
       <c r="B32" t="str">
-        <v>张帅</v>
+        <v>马正航</v>
       </c>
       <c r="C32" t="str">
-        <v>WTA</v>
+        <v>老叮当</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>000085</v>
+      <c r="A33">
+        <v>18430</v>
       </c>
       <c r="B33" t="str">
-        <v>史湘云</v>
+        <v>王佳怡</v>
       </c>
       <c r="C33" t="str">
-        <v>红楼梦</v>
+        <v>歪比巴卜</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>000043</v>
+      <c r="A34">
+        <v>20499</v>
       </c>
       <c r="B34" t="str">
-        <v>费德勒</v>
+        <v>崇捷</v>
       </c>
       <c r="C34" t="str">
-        <v>ATP</v>
+        <v>chpkq</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>000083</v>
+        <v>3等奖</v>
       </c>
       <c r="B35" t="str">
-        <v>李纨</v>
-      </c>
-      <c r="C35" t="str">
-        <v>红楼梦</v>
+        <v>airpods pro</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>000087</v>
+      <c r="A36">
+        <v>23233</v>
       </c>
       <c r="B36" t="str">
-        <v>巧姐</v>
+        <v>张家铭</v>
       </c>
       <c r="C36" t="str">
-        <v>红楼梦</v>
+        <v>白绝</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>000029</v>
+      <c r="A37">
+        <v>21492</v>
       </c>
       <c r="B37" t="str">
-        <v>塞莱斯</v>
+        <v>严汉光</v>
       </c>
       <c r="C37" t="str">
-        <v>WTA</v>
+        <v>暮里</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>000002</v>
+        <v>3等奖</v>
       </c>
       <c r="B38" t="str">
-        <v>哈勒普</v>
-      </c>
-      <c r="C38" t="str">
-        <v>WTA</v>
+        <v>sony wi-1000xm2 颈挂式入耳无线蓝牙耳机--黑色</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>000305</v>
+      <c r="A39">
+        <v>21491</v>
       </c>
       <c r="B39" t="str">
-        <v>A妹</v>
+        <v>李磊</v>
       </c>
       <c r="C39" t="str">
-        <v>MUSIC</v>
+        <v>李磊</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>000302</v>
+        <v>3等奖</v>
       </c>
       <c r="B40" t="str">
-        <v>阿黛尔</v>
-      </c>
-      <c r="C40" t="str">
-        <v>MUSIC</v>
+        <v>sony wi-1000xm2 颈挂式入耳无线蓝牙耳机--金色</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
-        <v>000076</v>
+      <c r="A41">
+        <v>21354</v>
       </c>
       <c r="B41" t="str">
-        <v>张泽</v>
+        <v>任政</v>
       </c>
       <c r="C41" t="str">
-        <v>ATP</v>
+        <v>洛班</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>000015</v>
+        <v>2等奖</v>
       </c>
       <c r="B42" t="str">
-        <v>格格</v>
-      </c>
-      <c r="C42" t="str">
-        <v>WTA</v>
+        <v>gopro hero9 black</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
-        <v>000064</v>
+      <c r="A43">
+        <v>20167</v>
       </c>
       <c r="B43" t="str">
-        <v>查迪</v>
+        <v>汪晨</v>
       </c>
       <c r="C43" t="str">
-        <v>ATP</v>
+        <v>稻憩</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>000001</v>
+        <v>2等奖</v>
       </c>
       <c r="B44" t="str">
-        <v>OSAKA</v>
-      </c>
-      <c r="C44" t="str">
-        <v>WTA</v>
+        <v>坚果p3s投影仪</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
-        <v>000306</v>
+      <c r="A45">
+        <v>1447</v>
       </c>
       <c r="B45" t="str">
-        <v>贾老板</v>
+        <v>袁敏</v>
       </c>
       <c r="C45" t="str">
-        <v>MUSIC</v>
+        <v>YuanMin</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>000036</v>
+        <v>2等奖</v>
       </c>
       <c r="B46" t="str">
-        <v>佩内塔</v>
-      </c>
-      <c r="C46" t="str">
-        <v>WTA</v>
+        <v>戴森吹风机 hd08</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
-        <v>000060</v>
+      <c r="A47">
+        <v>12154</v>
       </c>
       <c r="B47" t="str">
-        <v>西蒙</v>
+        <v>郑桦炯</v>
       </c>
       <c r="C47" t="str">
-        <v>ATP</v>
+        <v>点点星光</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>000050</v>
+        <v>2等奖</v>
       </c>
       <c r="B48" t="str">
-        <v>伊斯内尔</v>
-      </c>
-      <c r="C48" t="str">
-        <v>ATP</v>
+        <v>戴森v10</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
-        <v>000105</v>
+      <c r="A49">
+        <v>8379</v>
       </c>
       <c r="B49" t="str">
-        <v>贾琏</v>
+        <v>牛艺霖</v>
       </c>
       <c r="C49" t="str">
-        <v>红楼梦</v>
+        <v>起个什么名好</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>000086</v>
+        <v>1等奖</v>
       </c>
       <c r="B50" t="str">
-        <v>王熙凤</v>
-      </c>
-      <c r="C50" t="str">
-        <v>红楼梦</v>
+        <v>ps5(国行)</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>000107</v>
+      <c r="A51">
+        <v>15175</v>
       </c>
       <c r="B51" t="str">
-        <v>贾珍</v>
+        <v>蔡少灿</v>
       </c>
       <c r="C51" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>000077</v>
-      </c>
-      <c r="B52" t="str">
-        <v>林黛玉</v>
-      </c>
-      <c r="C52" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>000051</v>
-      </c>
-      <c r="B53" t="str">
-        <v>卡恰</v>
-      </c>
-      <c r="C53" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>000063</v>
-      </c>
-      <c r="B54" t="str">
-        <v>米尔曼</v>
-      </c>
-      <c r="C54" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>000053</v>
-      </c>
-      <c r="B55" t="str">
-        <v>福格尼尼</v>
-      </c>
-      <c r="C55" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>000207</v>
-      </c>
-      <c r="B56" t="str">
-        <v>药官</v>
-      </c>
-      <c r="C56" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>000035</v>
-      </c>
-      <c r="B57" t="str">
-        <v>文奇</v>
-      </c>
-      <c r="C57" t="str">
-        <v>WTA</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>000065</v>
-      </c>
-      <c r="B58" t="str">
-        <v>克里赞</v>
-      </c>
-      <c r="C58" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>000308</v>
-      </c>
-      <c r="B59" t="str">
-        <v>火星哥</v>
-      </c>
-      <c r="C59" t="str">
-        <v>MUSIC</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>000203</v>
-      </c>
-      <c r="B60" t="str">
-        <v>宝官</v>
-      </c>
-      <c r="C60" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>000208</v>
-      </c>
-      <c r="B61" t="str">
-        <v>藕官</v>
-      </c>
-      <c r="C61" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>000103</v>
-      </c>
-      <c r="B62" t="str">
-        <v>贾赦</v>
-      </c>
-      <c r="C62" t="str">
-        <v>红楼梦</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>000062</v>
-      </c>
-      <c r="B63" t="str">
-        <v>塞皮</v>
-      </c>
-      <c r="C63" t="str">
-        <v>ATP</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>特等奖</v>
+        <v>风浪红</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C64"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/src/static/抽奖结果.xlsx
+++ b/server/src/static/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,29 +401,67 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>18105</v>
+        <v>19346</v>
       </c>
       <c r="B3" t="str">
-        <v>赵艺</v>
+        <v>杨国强</v>
       </c>
       <c r="C3" t="str">
-        <v>赵艺</v>
+        <v>不能回家卖红薯233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>9670</v>
+        <v>21028</v>
       </c>
       <c r="B4" t="str">
-        <v>金政宇</v>
+        <v>邵凯亮</v>
       </c>
       <c r="C4" t="str">
-        <v>新血</v>
+        <v>飞鸟花树</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4等奖</v>
+      </c>
+      <c r="B5" t="str">
+        <v>aca空气炸锅</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>10407</v>
+      </c>
+      <c r="B6" t="str">
+        <v>李奎</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Liko</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>17018</v>
+      </c>
+      <c r="B7" t="str">
+        <v>饶丹</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Dainty</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>4等奖</v>
+      </c>
+      <c r="B8" t="str">
+        <v>skg按摩腰带</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/src/static/抽奖结果.xlsx
+++ b/server/src/static/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -388,80 +388,304 @@
         <v>姓名</v>
       </c>
       <c r="C1" t="str">
-        <v>部门</v>
+        <v>花名</v>
+      </c>
+      <c r="D1" t="str">
+        <v>奖品</v>
+      </c>
+      <c r="E1" t="str">
+        <v>奖品等级</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>4等奖</v>
-      </c>
-      <c r="B2" t="str">
-        <v>小米小爱音箱pro8</v>
+      <c r="A2">
+        <v>25709</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ding</v>
+      </c>
+      <c r="E2" t="str">
+        <v>3等奖</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>19346</v>
-      </c>
-      <c r="B3" t="str">
-        <v>杨国强</v>
+        <v>18531</v>
       </c>
       <c r="C3" t="str">
-        <v>不能回家卖红薯233</v>
+        <v>语尘</v>
+      </c>
+      <c r="E3" t="str">
+        <v>4等奖</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>21028</v>
-      </c>
-      <c r="B4" t="str">
-        <v>邵凯亮</v>
+        <v>21581</v>
       </c>
       <c r="C4" t="str">
-        <v>飞鸟花树</v>
+        <v>朱皮皮</v>
+      </c>
+      <c r="E4" t="str">
+        <v>4等奖</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>4等奖</v>
-      </c>
-      <c r="B5" t="str">
-        <v>aca空气炸锅</v>
+      <c r="A5">
+        <v>13907</v>
+      </c>
+      <c r="C5" t="str">
+        <v>牧师</v>
+      </c>
+      <c r="E5" t="str">
+        <v>4等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>10407</v>
-      </c>
-      <c r="B6" t="str">
-        <v>李奎</v>
+        <v>21492</v>
       </c>
       <c r="C6" t="str">
-        <v>Liko</v>
+        <v>暮里</v>
+      </c>
+      <c r="E6" t="str">
+        <v>4等奖</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>17018</v>
-      </c>
-      <c r="B7" t="str">
-        <v>饶丹</v>
+        <v>13742</v>
       </c>
       <c r="C7" t="str">
-        <v>Dainty</v>
+        <v>此此</v>
+      </c>
+      <c r="E7" t="str">
+        <v>4等奖</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>4等奖</v>
-      </c>
-      <c r="B8" t="str">
-        <v>skg按摩腰带</v>
+      <c r="A8">
+        <v>13071</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Alisha</v>
+      </c>
+      <c r="E8" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>21354</v>
+      </c>
+      <c r="C9" t="str">
+        <v>洛班</v>
+      </c>
+      <c r="E9" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>17355</v>
+      </c>
+      <c r="C10" t="str">
+        <v>老叮当</v>
+      </c>
+      <c r="E10" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>23457</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Wolff</v>
+      </c>
+      <c r="E11" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>18104</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Elaine228</v>
+      </c>
+      <c r="E12" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>23941</v>
+      </c>
+      <c r="C13" t="str">
+        <v>tingting</v>
+      </c>
+      <c r="E13" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>18473</v>
+      </c>
+      <c r="C14" t="str">
+        <v>kervin</v>
+      </c>
+      <c r="E14" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>21491</v>
+      </c>
+      <c r="C15" t="str">
+        <v>李磊</v>
+      </c>
+      <c r="E15" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>10830</v>
+      </c>
+      <c r="C16" t="str">
+        <v>玄天</v>
+      </c>
+      <c r="E16" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>26103</v>
+      </c>
+      <c r="C17" t="str">
+        <v>郭思佳</v>
+      </c>
+      <c r="E17" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>12521</v>
+      </c>
+      <c r="C18" t="str">
+        <v>田中君</v>
+      </c>
+      <c r="E18" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>23234</v>
+      </c>
+      <c r="C19" t="str">
+        <v>本心</v>
+      </c>
+      <c r="E19" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>17019</v>
+      </c>
+      <c r="C20" t="str">
+        <v>杉</v>
+      </c>
+      <c r="E20" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>14357</v>
+      </c>
+      <c r="C21" t="str">
+        <v>高巍</v>
+      </c>
+      <c r="E21" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>20338</v>
+      </c>
+      <c r="C22" t="str">
+        <v>小萌</v>
+      </c>
+      <c r="E22" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>12154</v>
+      </c>
+      <c r="C23" t="str">
+        <v>点点星光</v>
+      </c>
+      <c r="E23" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>17973</v>
+      </c>
+      <c r="C24" t="str">
+        <v>brecht</v>
+      </c>
+      <c r="E24" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>20590</v>
+      </c>
+      <c r="C25" t="str">
+        <v>时八岁</v>
+      </c>
+      <c r="E25" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>7725</v>
+      </c>
+      <c r="C26" t="str">
+        <v>小柯点点</v>
+      </c>
+      <c r="E26" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>25699</v>
+      </c>
+      <c r="C27" t="str">
+        <v>子誉</v>
+      </c>
+      <c r="E27" t="str">
+        <v>4等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/src/static/抽奖结果.xlsx
+++ b/server/src/static/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,164 +399,164 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>25709</v>
+        <v>21035</v>
       </c>
       <c r="C2" t="str">
-        <v>ding</v>
+        <v>贝叶</v>
       </c>
       <c r="E2" t="str">
-        <v>3等奖</v>
+        <v>特等奖</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>18531</v>
+        <v>24217</v>
       </c>
       <c r="C3" t="str">
-        <v>语尘</v>
+        <v>ZMM</v>
       </c>
       <c r="E3" t="str">
-        <v>4等奖</v>
+        <v>特等奖</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>21581</v>
+        <v>8367</v>
       </c>
       <c r="C4" t="str">
-        <v>朱皮皮</v>
+        <v>飞火</v>
       </c>
       <c r="E4" t="str">
-        <v>4等奖</v>
+        <v>特等奖</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>13907</v>
+        <v>11250</v>
       </c>
       <c r="C5" t="str">
-        <v>牧师</v>
+        <v>楚汐</v>
       </c>
       <c r="E5" t="str">
-        <v>4等奖</v>
+        <v>1等奖</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>21492</v>
+        <v>12498</v>
       </c>
       <c r="C6" t="str">
-        <v>暮里</v>
+        <v>成天呆</v>
       </c>
       <c r="E6" t="str">
-        <v>4等奖</v>
+        <v>2等奖</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>13742</v>
+        <v>24320</v>
       </c>
       <c r="C7" t="str">
-        <v>此此</v>
+        <v>达咩达咩</v>
       </c>
       <c r="E7" t="str">
-        <v>4等奖</v>
+        <v>2等奖</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>13071</v>
+        <v>17424</v>
       </c>
       <c r="C8" t="str">
-        <v>Alisha</v>
+        <v>黄若靓</v>
       </c>
       <c r="E8" t="str">
-        <v>4等奖</v>
+        <v>2等奖</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>21354</v>
+        <v>17314</v>
       </c>
       <c r="C9" t="str">
-        <v>洛班</v>
+        <v>程汪汪</v>
       </c>
       <c r="E9" t="str">
-        <v>4等奖</v>
+        <v>2等奖</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>17355</v>
+        <v>15069</v>
       </c>
       <c r="C10" t="str">
-        <v>老叮当</v>
+        <v>TracyJin</v>
       </c>
       <c r="E10" t="str">
-        <v>4等奖</v>
+        <v>2等奖</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>23457</v>
+        <v>9530</v>
       </c>
       <c r="C11" t="str">
-        <v>Wolff</v>
+        <v>Q布里茨Q</v>
       </c>
       <c r="E11" t="str">
-        <v>4等奖</v>
+        <v>3等奖</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>18104</v>
+        <v>17018</v>
       </c>
       <c r="C12" t="str">
-        <v>Elaine228</v>
+        <v>Dainty</v>
       </c>
       <c r="E12" t="str">
-        <v>4等奖</v>
+        <v>3等奖</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>23941</v>
+        <v>25709</v>
       </c>
       <c r="C13" t="str">
-        <v>tingting</v>
+        <v>ding</v>
       </c>
       <c r="E13" t="str">
-        <v>4等奖</v>
+        <v>3等奖</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>18473</v>
+        <v>18530</v>
       </c>
       <c r="C14" t="str">
-        <v>kervin</v>
+        <v>德宇</v>
       </c>
       <c r="E14" t="str">
-        <v>4等奖</v>
+        <v>3等奖</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>21491</v>
+        <v>11010</v>
       </c>
       <c r="C15" t="str">
-        <v>李磊</v>
+        <v>369</v>
       </c>
       <c r="E15" t="str">
-        <v>4等奖</v>
+        <v>3等奖</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>10830</v>
+        <v>18531</v>
       </c>
       <c r="C16" t="str">
-        <v>玄天</v>
+        <v>语尘</v>
       </c>
       <c r="E16" t="str">
         <v>4等奖</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>26103</v>
+        <v>21581</v>
       </c>
       <c r="C17" t="str">
-        <v>郭思佳</v>
+        <v>朱皮皮</v>
       </c>
       <c r="E17" t="str">
         <v>4等奖</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>12521</v>
+        <v>13907</v>
       </c>
       <c r="C18" t="str">
-        <v>田中君</v>
+        <v>牧师</v>
       </c>
       <c r="E18" t="str">
         <v>4等奖</v>
@@ -586,10 +586,10 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>23234</v>
+        <v>21492</v>
       </c>
       <c r="C19" t="str">
-        <v>本心</v>
+        <v>暮里</v>
       </c>
       <c r="E19" t="str">
         <v>4等奖</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>17019</v>
+        <v>13742</v>
       </c>
       <c r="C20" t="str">
-        <v>杉</v>
+        <v>此此</v>
       </c>
       <c r="E20" t="str">
         <v>4等奖</v>
@@ -608,10 +608,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>14357</v>
+        <v>13071</v>
       </c>
       <c r="C21" t="str">
-        <v>高巍</v>
+        <v>Alisha</v>
       </c>
       <c r="E21" t="str">
         <v>4等奖</v>
@@ -619,10 +619,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>20338</v>
+        <v>21354</v>
       </c>
       <c r="C22" t="str">
-        <v>小萌</v>
+        <v>洛班</v>
       </c>
       <c r="E22" t="str">
         <v>4等奖</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>12154</v>
+        <v>17355</v>
       </c>
       <c r="C23" t="str">
-        <v>点点星光</v>
+        <v>老叮当</v>
       </c>
       <c r="E23" t="str">
         <v>4等奖</v>
@@ -641,10 +641,10 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>17973</v>
+        <v>23457</v>
       </c>
       <c r="C24" t="str">
-        <v>brecht</v>
+        <v>Wolff</v>
       </c>
       <c r="E24" t="str">
         <v>4等奖</v>
@@ -652,10 +652,10 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>20590</v>
+        <v>18104</v>
       </c>
       <c r="C25" t="str">
-        <v>时八岁</v>
+        <v>Elaine228</v>
       </c>
       <c r="E25" t="str">
         <v>4等奖</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>7725</v>
+        <v>23941</v>
       </c>
       <c r="C26" t="str">
-        <v>小柯点点</v>
+        <v>tingting</v>
       </c>
       <c r="E26" t="str">
         <v>4等奖</v>
@@ -674,18 +674,161 @@
     </row>
     <row r="27">
       <c r="A27">
+        <v>18473</v>
+      </c>
+      <c r="C27" t="str">
+        <v>kervin</v>
+      </c>
+      <c r="E27" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>21491</v>
+      </c>
+      <c r="C28" t="str">
+        <v>李磊</v>
+      </c>
+      <c r="E28" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>10830</v>
+      </c>
+      <c r="C29" t="str">
+        <v>玄天</v>
+      </c>
+      <c r="E29" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>26103</v>
+      </c>
+      <c r="C30" t="str">
+        <v>郭思佳</v>
+      </c>
+      <c r="E30" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>12521</v>
+      </c>
+      <c r="C31" t="str">
+        <v>田中君</v>
+      </c>
+      <c r="E31" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>23234</v>
+      </c>
+      <c r="C32" t="str">
+        <v>本心</v>
+      </c>
+      <c r="E32" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>17019</v>
+      </c>
+      <c r="C33" t="str">
+        <v>杉</v>
+      </c>
+      <c r="E33" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>14357</v>
+      </c>
+      <c r="C34" t="str">
+        <v>高巍</v>
+      </c>
+      <c r="E34" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>20338</v>
+      </c>
+      <c r="C35" t="str">
+        <v>小萌</v>
+      </c>
+      <c r="E35" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>12154</v>
+      </c>
+      <c r="C36" t="str">
+        <v>点点星光</v>
+      </c>
+      <c r="E36" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>17973</v>
+      </c>
+      <c r="C37" t="str">
+        <v>brecht</v>
+      </c>
+      <c r="E37" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>20590</v>
+      </c>
+      <c r="C38" t="str">
+        <v>时八岁</v>
+      </c>
+      <c r="E38" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>7725</v>
+      </c>
+      <c r="C39" t="str">
+        <v>小柯点点</v>
+      </c>
+      <c r="E39" t="str">
+        <v>4等奖</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
         <v>25699</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C40" t="str">
         <v>子誉</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E40" t="str">
         <v>4等奖</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
   </ignoredErrors>
 </worksheet>
 </file>